--- a/src/test/resources/credentials.xlsx
+++ b/src/test/resources/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39903C63-9902-4AD1-B142-3FC2BCB867AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF14C2C-1504-43A3-ADA4-300823D11E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{2153A0C8-6D8C-43A4-B055-B91A2171CE27}"/>
+    <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{2153A0C8-6D8C-43A4-B055-B91A2171CE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
